--- a/data/raw/FTS_Pedal_v3.xlsx
+++ b/data/raw/FTS_Pedal_v3.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="62">
   <si>
-    <t xml:space="preserve">Pedal</t>
+    <t xml:space="preserve">Pedal_v3</t>
   </si>
   <si>
     <t xml:space="preserve">F-REQ-30222-01/A One Pedal</t>
@@ -425,12 +425,12 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.35"/>
